--- a/src/test/resources/test-data-sheet.xlsx
+++ b/src/test/resources/test-data-sheet.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\parindersinghraina\data-driven-framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36B0A0EA-B90E-4C4A-BADA-B489ADEBB0EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5370D5FD-DE30-4040-A307-95A0C1730656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{FD902937-D1D8-4FB3-914A-2FEDB077ED39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FD902937-D1D8-4FB3-914A-2FEDB077ED39}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,10 +50,10 @@
     <t>TC_Login_01</t>
   </si>
   <si>
-    <t>parindersinghraina</t>
-  </si>
-  <si>
-    <t>P@rinder55</t>
+    <t>parindersinghraina111111</t>
+  </si>
+  <si>
+    <t>texttttttt</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +466,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{060964E7-6A08-4E6E-A2E0-80304BD1703D}"/>
+    <hyperlink ref="C2" r:id="rId1" display="P@rinder55" xr:uid="{060964E7-6A08-4E6E-A2E0-80304BD1703D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
